--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究生\2021 Spring\7261 News analytics\Presentation\Team assignment 0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究生\2021 Spring\7261 News analytics\Presentation\Team assignment 0\News-Frequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFA546D-6056-4D7F-B4B3-98E27F7D65A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BACA36-D19F-439C-809F-26308869B9F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2534E73D-058F-4E79-B674-5C8E22FC3FAE}"/>
+    <workbookView xWindow="1990" yWindow="2880" windowWidth="9800" windowHeight="10140" xr2:uid="{2534E73D-058F-4E79-B674-5C8E22FC3FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.6125</v>
+        <v>1.5421689999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,17 +435,17 @@
       </c>
       <c r="B4">
         <f>($B$1^A4*EXP(-$B$1))/FACT(A4)</f>
-        <v>0.19938851916853514</v>
+        <v>0.21391661273806725</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>3*B1</f>
-        <v>4.8375000000000004</v>
+        <v>4.6265070000000001</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="0">($B$1^A5*EXP(-$B$1))/FACT(A5)</f>
-        <v>8.3804785285131855E-2</v>
+        <v>6.6134358059812229E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.1576305975989152E-15</v>
+        <v>5.0904863106258046E-16</v>
       </c>
     </row>
   </sheetData>
